--- a/config_2.2/banner_style_ui.xlsx
+++ b/config_2.2/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1040,7 +1040,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,6 +1098,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,8 +1266,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1618,8 +1624,8 @@
   <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4381,10 +4387,10 @@
         <v>22</v>
       </c>
       <c r="K90" s="42">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="L90" s="42">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4421,38 +4427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4469,6 +4443,38 @@
 </comments>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
@@ -4476,13 +4482,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -4494,13 +4500,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.2/banner_style_ui.xlsx
+++ b/config_2.2/banner_style_ui.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="198">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -940,6 +940,10 @@
   </si>
   <si>
     <t>多页活动弹出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","panel"</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1625,7 +1629,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L95" sqref="L95"/>
+      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4380,7 +4384,7 @@
       </c>
       <c r="G90" s="41"/>
       <c r="H90" s="41" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="I90" s="41"/>
       <c r="J90" s="41" t="s">
@@ -4427,6 +4431,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4443,31 +4471,13 @@
 </comments>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="5" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -4475,44 +4485,38 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>